--- a/data/trans_bre/P18_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,32</t>
+          <t>-29,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>-18,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,98</t>
+          <t>-19,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>-10,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,82</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>-26,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>-52,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>-24,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>-30,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-17,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-43,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 38,8</t>
+          <t>-38,72; -19,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 29,22</t>
+          <t>-28,86; -7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 30,84</t>
+          <t>-30,46; -8,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 20,78</t>
+          <t>-22,5; 1,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 38,83</t>
+          <t>-21,39; 4,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,14; 104,92</t>
+          <t>-39,56; -12,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 145,11</t>
+          <t>-20,41; 6,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 111,1</t>
+          <t>-64,2; -37,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 62,68</t>
+          <t>-36,76; -10,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,34; 133,15</t>
+          <t>-43,18; -14,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-33,31; 2,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; 8,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-57,74; -22,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-31,08; 13,56</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,53</t>
+          <t>-27,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>-18,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>-14,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>-24,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-10,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-21,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-12,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-9,58%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 36,97</t>
+          <t>-38,21; -15,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 30,38</t>
+          <t>-29,19; -5,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 16,02</t>
+          <t>-17,26; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 23,76</t>
+          <t>-24,55; -1,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 18,26</t>
+          <t>-16,0; 17,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,38; 130,81</t>
+          <t>-20,1; 4,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,33; 167,17</t>
+          <t>-18,96; 7,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 57,92</t>
+          <t>-54,94; -28,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 90,74</t>
+          <t>-36,6; -8,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 56,6</t>
+          <t>-23,62; 2,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; -3,36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,4; 39,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-29,75; 8,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,64; 12,53</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,55</t>
+          <t>-22,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>-13,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>-16,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,76</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>-14,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>-16,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>-37,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>-22,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-21,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,59%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-21,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-25,21%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 30,67</t>
+          <t>-30,39; -13,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 20,15</t>
+          <t>-21,99; -4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 24,32</t>
+          <t>-24,03; -8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 24,12</t>
+          <t>-23,81; -6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 22,84</t>
+          <t>-13,89; 5,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,27; 88,05</t>
+          <t>-22,93; -4,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 105,61</t>
+          <t>-25,45; -5,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 104,67</t>
+          <t>-47,27; -24,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,36; 109,7</t>
+          <t>-27,61; -6,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 84,45</t>
+          <t>-32,47; -12,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-30,99; -9,48</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,98; 9,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-32,08; -7,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-37,98; -10,25</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,89</t>
+          <t>-25,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>-14,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>-12,8</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>-39,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>-17,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-22,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-21,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-23,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-19,62%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 32,91</t>
+          <t>-32,78; -17,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 22,9</t>
+          <t>-22,85; -5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 18,05</t>
+          <t>-19,19; -2,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 21,15</t>
+          <t>-21,68; -5,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 23,17</t>
+          <t>-22,55; -5,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,13; 105,86</t>
+          <t>-22,11; -2,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 103,64</t>
+          <t>-20,14; -0,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 58,68</t>
+          <t>-48,33; -29,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 67,71</t>
+          <t>-30,14; -8,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 58,26</t>
+          <t>-27,91; -4,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,66; -8,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-31,67; -8,87</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; -4,48</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-32,33; -0,71</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,41</t>
+          <t>-22,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,28</t>
+          <t>-22,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>-23,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,66</t>
+          <t>-27,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>-13,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>101,78%</t>
+          <t>-18,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>81,15%</t>
+          <t>-35,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>-34,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-39,96%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-28,58%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-24,82%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-33,43%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 30,68</t>
+          <t>-30,66; -13,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 31,75</t>
+          <t>-31,67; -13,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 33,83</t>
+          <t>-32,12; -15,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,13; 36,75</t>
+          <t>-35,78; -19,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 22,84</t>
+          <t>-29,37; -9,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,43; 94,4</t>
+          <t>-24,06; -2,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,77; 169,24</t>
+          <t>-28,3; -8,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,88; 129,59</t>
+          <t>-45,75; -23,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,47; 137,98</t>
+          <t>-39,62; -17,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 57,71</t>
+          <t>-44,03; -23,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; -29,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; -14,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-40,3; -6,6</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-46,35; -17,92</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,86</t>
+          <t>-19,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>-22,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,42</t>
+          <t>-28,76</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,2</t>
+          <t>-28,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,6</t>
+          <t>-28,52</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>-22,62</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,72%</t>
+          <t>-29,46</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>-30,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>-30,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>-40,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-41,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-37,83%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-31,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-43,73%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,69; 29,05</t>
+          <t>-29,06; -11,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,65; 30,53</t>
+          <t>-32,73; -10,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,74; 38,71</t>
+          <t>-38,29; -18,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,86; 35,63</t>
+          <t>-37,93; -17,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 35,18</t>
+          <t>-39,36; -15,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,77; 99,5</t>
+          <t>-34,27; -9,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,24; 143,08</t>
+          <t>-39,46; -17,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,14; 162,7</t>
+          <t>-42,73; -19,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,68; 147,79</t>
+          <t>-42,83; -17,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>32,28; 150,94</t>
+          <t>-50,59; -28,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,62; -26,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-50,03; -20,64</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,58; -15,1</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-55,12; -28,06</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,01</t>
+          <t>-24,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>-18,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>-15,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>67,61%</t>
+          <t>-15,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>-38,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-27,46%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-19,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-25,59%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 27,97</t>
+          <t>-27,31; -20,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,56</t>
+          <t>-21,82; -13,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 21,87</t>
+          <t>-21,43; -14,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,53</t>
+          <t>-22,62; -14,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,57</t>
+          <t>-17,57; -8,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,34; 79,36</t>
+          <t>-20,09; -10,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,68; 92,64</t>
+          <t>-19,57; -10,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,2; 73,45</t>
+          <t>-42,55; -33,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,09; 72,63</t>
+          <t>-28,91; -18,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,1; 57,25</t>
+          <t>-30,96; -21,51</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-32,41; -22,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; -12,87</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; -18,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; -18,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
